--- a/src/main/webapp/book/demo/swineFlu.xlsx
+++ b/src/main/webapp/book/demo/swineFlu.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/java-client-demo/src/main/webapp/book/demo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18975" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -371,11 +382,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.00_ "/>
-    <numFmt numFmtId="189" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,13 +595,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,10 +610,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,7 +647,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -644,7 +655,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -654,7 +665,7 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -662,7 +673,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -680,7 +691,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -688,7 +699,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -698,7 +709,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -706,7 +717,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -716,7 +727,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,12 +811,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -835,12 +846,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1046,22 +1057,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="45" customWidth="1"/>
     <col min="4" max="4" width="58" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="6" width="15.6640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>90</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>97</v>
       </c>
@@ -1097,7 +1108,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1129,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1150,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1171,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="38.25">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1215,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1236,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -1246,7 +1257,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
@@ -1267,7 +1278,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1299,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="38.25">
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +1320,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
@@ -1330,7 +1341,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="38.25">
+    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>74</v>
       </c>
@@ -1351,7 +1362,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="25.5">
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1383,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1404,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="38.25">
+    <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1425,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>14</v>
       </c>
@@ -1435,7 +1446,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="25.5">
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1467,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="25.5">
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1488,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -1498,7 +1509,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1530,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1551,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="25.5">
+    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1572,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1593,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="63.75">
+    <row r="26" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1614,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1635,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1656,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="25.5">
+    <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>25</v>
       </c>
@@ -1666,7 +1677,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>26</v>
       </c>
@@ -1687,7 +1698,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>27</v>
       </c>
@@ -1708,7 +1719,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>28</v>
       </c>
@@ -1729,7 +1740,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>29</v>
       </c>
@@ -1750,7 +1761,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>84</v>
       </c>
@@ -1771,7 +1782,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>30</v>
       </c>
@@ -1792,7 +1803,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="25.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>31</v>
       </c>
@@ -1813,7 +1824,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="25.5">
+    <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1845,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="25.5">
+    <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>33</v>
       </c>
@@ -1855,7 +1866,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1887,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>35</v>
       </c>
@@ -1897,7 +1908,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="51">
+    <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>36</v>
       </c>
@@ -1918,7 +1929,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="63.75">
+    <row r="42" spans="1:7" ht="70" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>37</v>
       </c>
@@ -1939,18 +1950,18 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="47"/>
       <c r="B44" s="48"/>
       <c r="F44" s="46"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
         <v>96</v>
       </c>
@@ -1960,7 +1971,7 @@
       <c r="F45" s="46"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>60</v>
       </c>
@@ -1971,7 +1982,7 @@
       <c r="F46" s="46"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>61</v>
       </c>
@@ -1982,7 +1993,7 @@
       <c r="F47" s="46"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -1993,7 +2004,7 @@
       <c r="F48" s="46"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="25.5">
+    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -2004,7 +2015,7 @@
       <c r="F49" s="46"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -2015,7 +2026,7 @@
       <c r="F50" s="46"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5">
+    <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>67</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>59</v>
       </c>
@@ -2108,30 +2119,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId51"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>